--- a/src/main/resources/tp/_export_extension.xlsx
+++ b/src/main/resources/tp/_export_extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>手机号</t>
+  </si>
+  <si>
     <t>推广渠道</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>t.type</t>
+  </si>
+  <si>
+    <t>t.tel</t>
   </si>
   <si>
     <t>t.source</t>
@@ -59,53 +65,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,14 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,22 +96,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +119,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,9 +141,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,9 +178,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,25 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +232,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,175 +388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +423,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,39 +506,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,188 +523,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,18 +1025,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="6" width="25.7777777777778" customWidth="1"/>
+    <col min="1" max="7" width="25.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,25 +1055,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/tp/_export_extension.xlsx
+++ b/src/main/resources/tp/_export_extension.xlsx
@@ -67,8 +67,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,6 +76,126 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,137 +207,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,9 +428,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +461,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -461,21 +481,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,22 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,12 +1028,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="25.7777777777778" customWidth="1"/>
+    <col min="1" max="7" width="24.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/main/resources/tp/_export_extension.xlsx
+++ b/src/main/resources/tp/_export_extension.xlsx
@@ -27,12 +27,12 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>手机号</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
     <t>推广渠道</t>
   </si>
   <si>
@@ -48,10 +48,10 @@
     <t>t.userName</t>
   </si>
   <si>
+    <t>t.tel</t>
+  </si>
+  <si>
     <t>t.type</t>
-  </si>
-  <si>
-    <t>t.tel</t>
   </si>
   <si>
     <t>t.source</t>
@@ -65,15 +65,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -88,43 +110,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,7 +201,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,77 +217,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,20 +428,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,6 +461,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,45 +523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>

--- a/src/main/resources/tp/_export_extension.xlsx
+++ b/src/main/resources/tp/_export_extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,15 @@
     <t>推广渠道</t>
   </si>
   <si>
+    <t>访问设备</t>
+  </si>
+  <si>
+    <t>推广计划 </t>
+  </si>
+  <si>
+    <t>推广单元</t>
+  </si>
+  <si>
     <t>提交时间</t>
   </si>
   <si>
@@ -55,6 +64,15 @@
   </si>
   <si>
     <t>t.source</t>
+  </si>
+  <si>
+    <t>t.device</t>
+  </si>
+  <si>
+    <t>t.plan</t>
+  </si>
+  <si>
+    <t>t.group</t>
   </si>
   <si>
     <t>t.create_time}}</t>
@@ -65,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,24 +98,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,106 +205,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,25 +250,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,157 +328,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,22 +448,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,15 +518,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -485,41 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,18 +1043,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="7" width="24.1111111111111" customWidth="1"/>
+    <col min="1" max="10" width="24.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,28 +1076,46 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
